--- a/01_Advanced Excel/aug25.xlsx
+++ b/01_Advanced Excel/aug25.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\01_Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ECCC08-CF2E-49AD-B967-833C8B5CA373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0713F452-6B6B-4827-A1F8-9327B4897828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Khush Patel" sheetId="3" r:id="rId2"/>
+    <sheet name="Kavyan Nayak" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -140,6 +141,57 @@
   </si>
   <si>
     <t>Roll No</t>
+  </si>
+  <si>
+    <t>Kavyan</t>
+  </si>
+  <si>
+    <t>Nayak</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Advanced SQL</t>
+  </si>
+  <si>
+    <t>Core Python</t>
+  </si>
+  <si>
+    <t>Python Libraries</t>
+  </si>
+  <si>
+    <t>Probability &amp; Statistics</t>
+  </si>
+  <si>
+    <t>Hypothesis Testing</t>
+  </si>
+  <si>
+    <t>Avg Makrks Per Subject</t>
+  </si>
+  <si>
+    <t>Rounded Off Avg</t>
+  </si>
+  <si>
+    <t>Truncated Avg</t>
+  </si>
+  <si>
+    <t>Rounded Down Avg</t>
+  </si>
+  <si>
+    <t>Rounded Up Avg</t>
+  </si>
+  <si>
+    <t>Nearest Ten</t>
+  </si>
+  <si>
+    <t>Nearest Hundred</t>
+  </si>
+  <si>
+    <t>Pi</t>
   </si>
 </sst>
 </file>
@@ -200,13 +252,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,47 +558,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
@@ -556,8 +608,8 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -578,7 +630,7 @@
       <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>45346</v>
       </c>
       <c r="H3">
@@ -616,12 +668,12 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>45347</v>
       </c>
       <c r="H4">
-        <f>95+$C$19</f>
-        <v>105</v>
+        <f>'Kavyan Nayak'!E6+Sheet1!$C$19</f>
+        <v>155</v>
       </c>
       <c r="I4">
         <f>90+$C19</f>
@@ -632,12 +684,12 @@
         <v>85</v>
       </c>
       <c r="K4">
-        <f>H4+I4+J4</f>
-        <v>290</v>
+        <f>SUM(H4:J4)</f>
+        <v>340</v>
       </c>
       <c r="L4">
         <f>K4+C$18</f>
-        <v>305</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -653,7 +705,7 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>45348</v>
       </c>
       <c r="H5">
@@ -668,9 +720,13 @@
         <f>80+$C$19</f>
         <v>90</v>
       </c>
+      <c r="K5">
+        <f>SUM(H5:J5)</f>
+        <v>300</v>
+      </c>
       <c r="L5">
-        <f t="shared" ref="L5:L10" si="0">K5+C$18</f>
-        <v>15</v>
+        <f t="shared" ref="L5:M17" si="0">K5+C$18</f>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -683,8 +739,12 @@
       <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>45349</v>
+      </c>
+      <c r="K6">
+        <f>SUM(H6:J6)</f>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -701,7 +761,7 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>45350</v>
       </c>
       <c r="L7">
@@ -719,7 +779,7 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>45351</v>
       </c>
       <c r="L8">
@@ -737,7 +797,7 @@
       <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>45352</v>
       </c>
       <c r="K9">
@@ -759,7 +819,7 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>45353</v>
       </c>
       <c r="L10">
@@ -777,8 +837,12 @@
       <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>45354</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -791,8 +855,12 @@
       <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>45355</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -805,8 +873,12 @@
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>45356</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -819,8 +891,12 @@
       <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>45357</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -833,8 +909,12 @@
       <c r="F15" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>45358</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -847,11 +927,15 @@
       <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>45359</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -861,11 +945,15 @@
       <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>45360</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -873,7 +961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -885,7 +973,7 @@
       </c>
       <c r="H19">
         <f>AVERAGE(H3:H17)</f>
-        <v>118.33333333333333</v>
+        <v>135</v>
       </c>
       <c r="I19">
         <f>AVERAGE(I3:I17)</f>
@@ -897,21 +985,21 @@
       </c>
       <c r="K19">
         <f>AVERAGE(K3:K17)</f>
-        <v>202.66666666666666</v>
+        <v>191.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
@@ -926,10 +1014,409 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE3FB0E-8448-4693-8CF5-E768D7915830}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5">
+        <v>3.1415959999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f>SUM(B6:D6)</f>
+        <v>138</v>
+      </c>
+      <c r="I6">
+        <f>ROUND(I5, 4)</f>
+        <v>3.1415999999999999</v>
+      </c>
+      <c r="J6">
+        <f>TRUNC(I5, 4)</f>
+        <v>3.1415000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E13" si="0">SUM(B7:D7)</f>
+        <v>260</v>
+      </c>
+      <c r="I7">
+        <f>ROUND(I5, 2)</f>
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>97</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="I8">
+        <f>ROUND(I5, 3)</f>
+        <v>3.1419999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>86</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>86</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>-2</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B6:B13)</f>
+        <v>658</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:E15" si="1">SUM(C6:C13)</f>
+        <v>669</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>601</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(B6:B13)</f>
+        <v>82.25</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:E16" si="2">AVERAGE(C6:C13)</f>
+        <v>83.625</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>75.125</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <f>ROUND(B16, 1)</f>
+        <v>82.3</v>
+      </c>
+      <c r="C17">
+        <f>ROUND(C16, 0)</f>
+        <v>84</v>
+      </c>
+      <c r="D17">
+        <f>ROUND(D16, 0)</f>
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <f>ROUND(E16, 0)</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <f>TRUNC(B16, 1)</f>
+        <v>82.2</v>
+      </c>
+      <c r="C18">
+        <f>TRUNC(C16, 0)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <f>ROUNDDOWN(B16, 1)</f>
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <f>ROUNDUP(B16, 0)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <f>ROUND(B16, -1)</f>
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <f>ROUND(C16, -1)</f>
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <f>ROUND(D16, -1)</f>
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <f>ROUND(E16, -1)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <f>ROUND(B15, -3)</f>
+        <v>1000</v>
+      </c>
+      <c r="C22">
+        <f>ROUND(C15, -3)</f>
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <f>ROUND(D15, -3)</f>
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <f>ROUND(E15, -3)</f>
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6FFD98-E9A8-4139-9521-DA0D0B23485F}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -947,7 +1434,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -955,7 +1442,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -980,17 +1467,17 @@
         <v>7</v>
       </c>
       <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="C6">
-        <v>48</v>
-      </c>
       <c r="D6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <f>SUM(B6:D6)</f>
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
